--- a/PCB/InterfaceBoardv1.0/BillOfMaterials/BOM_InterfaceBoardv1.0.xlsx
+++ b/PCB/InterfaceBoardv1.0/BillOfMaterials/BOM_InterfaceBoardv1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Projectgegevens\Group De Zeeuw\16138 Next generation MINISCOPE\NinScope@Github\Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adegroot\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -93,9 +93,6 @@
     <t>R1,R2</t>
   </si>
   <si>
-    <t>R3,R5,R9,R10,R11,R12</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>V1.0</t>
   </si>
   <si>
-    <t>v1.0</t>
-  </si>
-  <si>
     <t>0.6mm</t>
   </si>
   <si>
@@ -496,6 +490,12 @@
   </si>
   <si>
     <t xml:space="preserve">Indicator LED </t>
+  </si>
+  <si>
+    <t>v1.1</t>
+  </si>
+  <si>
+    <t>R3,R5,R10,R11,R12</t>
   </si>
 </sst>
 </file>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +898,7 @@
   <sheetData>
     <row r="1" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1" s="1"/>
@@ -1414,34 +1414,34 @@
     </row>
     <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2">
-        <v>43489</v>
+        <v>43718</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
@@ -1957,23 +1957,23 @@
     </row>
     <row r="7" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
         <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
@@ -1987,22 +1987,22 @@
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
@@ -2010,160 +2010,160 @@
         <v>14</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
         <v>74</v>
-      </c>
-      <c r="F12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>149</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s">
         <v>89</v>
       </c>
-      <c r="G13" t="s">
-        <v>91</v>
-      </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
         <v>70</v>
       </c>
-      <c r="E14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" t="s">
-        <v>72</v>
-      </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="3"/>
       <c r="F19" s="3"/>
@@ -2179,22 +2179,22 @@
         <v>2</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2202,25 +2202,25 @@
         <v>8</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F21" s="11">
         <v>2524957</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2228,25 +2228,25 @@
         <v>11</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22">
         <v>5</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>98</v>
-      </c>
-      <c r="G22" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2254,25 +2254,25 @@
         <v>12</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2280,108 +2280,108 @@
         <v>13</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F24" s="11">
         <v>2672085</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26">
         <v>6</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F26" s="11">
         <v>2218854</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="G27" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="3"/>
       <c r="F29" s="3"/>
@@ -2397,100 +2397,100 @@
         <v>2</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" t="s">
         <v>123</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2498,22 +2498,22 @@
         <v>4</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34">
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H34" s="3">
         <v>742692003</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="3"/>
       <c r="F36" s="3"/>
@@ -2537,22 +2537,22 @@
         <v>2</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2560,7 +2560,7 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2569,169 +2569,169 @@
         <v>10</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
         <v>19</v>
-      </c>
-      <c r="B39" t="s">
-        <v>20</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="H39" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="I39" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F40" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" t="s">
         <v>136</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="H40" t="s">
-        <v>135</v>
-      </c>
-      <c r="I40" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F41" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H41" t="s">
+        <v>138</v>
+      </c>
+      <c r="I41" t="s">
         <v>139</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H41" t="s">
-        <v>140</v>
-      </c>
-      <c r="I41" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H42" t="s">
+        <v>140</v>
+      </c>
+      <c r="I42" t="s">
         <v>142</v>
-      </c>
-      <c r="I42" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H43" t="s">
+        <v>143</v>
+      </c>
+      <c r="I43" t="s">
         <v>145</v>
-      </c>
-      <c r="I43" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45"/>
       <c r="C45" s="3"/>
@@ -2756,19 +2756,19 @@
         <v>3</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G46" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="I46" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2785,19 +2785,19 @@
         <v>7</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
